--- a/proposal/table.xlsx
+++ b/proposal/table.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12860" yWindow="460" windowWidth="28160" windowHeight="22480" tabRatio="500"/>
+    <workbookView xWindow="11040" yWindow="460" windowWidth="28160" windowHeight="22480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="result" sheetId="1" r:id="rId1"/>
+    <sheet name="rx_exp" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="rx_exp" localSheetId="1">rx_exp!$A$1:$G$100</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -26,8 +30,26 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="rx_exp" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/jinfu/Documents/workspace/python/metricRxjava/config/rx_exp.csv" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="185">
   <si>
     <t>Dim.</t>
   </si>
@@ -108,16 +130,506 @@
   </si>
   <si>
     <t>Recent developer experience</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Diffusion</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Number of introducing locks or synchronization</t>
+  </si>
+  <si>
+    <t>Number of changing loop</t>
+  </si>
+  <si>
+    <t>Number of changing condition</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Number of changing function call</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>Hadoop</t>
+  </si>
+  <si>
+    <t>Rxjava</t>
+  </si>
+  <si>
+    <t>19fac95ca82bf40e9837280f5d33e0bfdc81db39</t>
+  </si>
+  <si>
+    <t>akarnokd</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>over 3 years ago</t>
+  </si>
+  <si>
+    <t>17 days ago</t>
+  </si>
+  <si>
+    <t>b21aa20a78721ac67df7bd3f5bedc664037ce8c8</t>
+  </si>
+  <si>
+    <t>D√°vid Karnok</t>
+  </si>
+  <si>
+    <t>over 1 year ago</t>
+  </si>
+  <si>
+    <t>13 days ago</t>
+  </si>
+  <si>
+    <t>c309036676e2491594f1af4ace88004a5de5ba88</t>
+  </si>
+  <si>
+    <t>Evgen Maletsky</t>
+  </si>
+  <si>
+    <t>3 months ago</t>
+  </si>
+  <si>
+    <t>fe3d60d905d11821bd64fb3016973986316e3e1a</t>
+  </si>
+  <si>
+    <t>gaemi</t>
+  </si>
+  <si>
+    <t>4 months ago</t>
+  </si>
+  <si>
+    <t>5e3c6bdc3a2b8c0946069ca16ed80a2a2b8880af</t>
+  </si>
+  <si>
+    <t>a9f1f4f151cecf3fcfc59fcf085fc9cac9223d08</t>
+  </si>
+  <si>
+    <t>48516372b9770a0f442bea06f7f93b3d27d6ed32</t>
+  </si>
+  <si>
+    <t>a902d4aac034f8585b727e4fc43c53fe20a4db36</t>
+  </si>
+  <si>
+    <t>9b91d4ec21bd889e7c23359a45b0cbf04f406678</t>
+  </si>
+  <si>
+    <t>7d479322d8f5649a8a21f8ba13b4ff6b6657168a</t>
+  </si>
+  <si>
+    <t>3489cc174cb72edfc0d388a566b22c850d5b2e40</t>
+  </si>
+  <si>
+    <t>Niklas Baudy</t>
+  </si>
+  <si>
+    <t>10 months ago</t>
+  </si>
+  <si>
+    <t>27 days ago</t>
+  </si>
+  <si>
+    <t>1875256f3c6a64f56c75585d8f1d00a8d506c68d</t>
+  </si>
+  <si>
+    <t>2332df245545fae31c996f65c5aa1c50799d3be1</t>
+  </si>
+  <si>
+    <t>5b6d1f8c8e9e4adc3fe31388811aa4876a5afba2</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>9f24df9e83fc98d078b4f34805512f9d770e5e4f</t>
+  </si>
+  <si>
+    <t>34b4b6b6614d2c37d11b595a468f1b1954485826</t>
+  </si>
+  <si>
+    <t>Dave Moten</t>
+  </si>
+  <si>
+    <t>about 3 years ago</t>
+  </si>
+  <si>
+    <t>about 1 month ago</t>
+  </si>
+  <si>
+    <t>d52cce927277803524a519251cba5ec36b180ed7</t>
+  </si>
+  <si>
+    <t>a39fa891a10eda4eaefff8faac0d0899110525bc</t>
+  </si>
+  <si>
+    <t>b7f81d2a1fb37e7cdd7e72b34c032a186cf01dbc</t>
+  </si>
+  <si>
+    <t>75e9bfa3bd1e0c084d20ed671d33d05d5ff0f8ab</t>
+  </si>
+  <si>
+    <t>846afd353fd519bb8d2ee5b49efa050d8a0366b4</t>
+  </si>
+  <si>
+    <t>fedb543ceebec02e89c7babec384c1c7c208dae4</t>
+  </si>
+  <si>
+    <t>e2e70d20ff0c0f26b1e66db5ad121b29586c62a6</t>
+  </si>
+  <si>
+    <t>8429dc7671e2b26b6048ab47fa59e286dd77bf0c</t>
+  </si>
+  <si>
+    <t>b238cc80ba3eb1041e737bb09bb34e7854c66ab2</t>
+  </si>
+  <si>
+    <t>f2949382242f23252042ca110d528b3de58827d2</t>
+  </si>
+  <si>
+    <t>baa00f7f8bad0e9849b32245aadbcb1b09dea317</t>
+  </si>
+  <si>
+    <t>4c0d9c982f077ea4c00a0e30e0f1e9784cc0934b</t>
+  </si>
+  <si>
+    <t>Artem Zinnatullin</t>
+  </si>
+  <si>
+    <t>about 2 years ago</t>
+  </si>
+  <si>
+    <t>5 months ago</t>
+  </si>
+  <si>
+    <t>442c6cefd4b2c7663a2781c41a1653a24996b948</t>
+  </si>
+  <si>
+    <t>17b325e896aa564d602304975504e7a626c272ff</t>
+  </si>
+  <si>
+    <t>e5ae0b95dbd46ed1ca088c73262ff2473fd12de9</t>
+  </si>
+  <si>
+    <t>Mike Kobit</t>
+  </si>
+  <si>
+    <t>606e98bbceb66153bee0c9b05df2e96284cc89aa</t>
+  </si>
+  <si>
+    <t>d7e8e4ff63a6d581b3b1fb459a8a88123e9b875a</t>
+  </si>
+  <si>
+    <t>37bde8c87a9bb0daf34a9037ebc3541fc7a17ce3</t>
+  </si>
+  <si>
+    <t>a94a307ab11339b09cb2e69a00a874dea532635f</t>
+  </si>
+  <si>
+    <t>557aca3bed17d85df5bdee384d4d4adba03ea64c</t>
+  </si>
+  <si>
+    <t>ff66abcc516d3e8cd49c5062e4f8e8805adf8d0e</t>
+  </si>
+  <si>
+    <t>36dde8438e05aa1209104e914eb9d5117eebaa48</t>
+  </si>
+  <si>
+    <t>bbae4a5d0afa8607156c0f867c33da2bebc30488</t>
+  </si>
+  <si>
+    <t>715d71d383134037c7b2b165a74ca44b9c53226c</t>
+  </si>
+  <si>
+    <t>2f8e8bc60e15653d258a013717317233a0e3317f</t>
+  </si>
+  <si>
+    <t>91d2b93653e381d70574cde6158e590f0061e3ef</t>
+  </si>
+  <si>
+    <t>c8303e196c8d93c2899f5352a2c9368520aecd7d</t>
+  </si>
+  <si>
+    <t>George Campbell</t>
+  </si>
+  <si>
+    <t>about 4 years ago</t>
+  </si>
+  <si>
+    <t>1d9283d8a1544c58d15aa9147b0eadd6f9a1365b</t>
+  </si>
+  <si>
+    <t>ba6f392de399856c3d5ee48bbd5348aa67ce2866</t>
+  </si>
+  <si>
+    <t>6df4ea3851e78a64446cbd863fac8d39c6feef2b</t>
+  </si>
+  <si>
+    <t>tbcs</t>
+  </si>
+  <si>
+    <t>40e94647191d43d70cf732728742d62c38aac0a9</t>
+  </si>
+  <si>
+    <t>Alberto Ballano</t>
+  </si>
+  <si>
+    <t>106d00485a41b7cdd29ee0065c8e026a46729235</t>
+  </si>
+  <si>
+    <t>Jiawen Geng</t>
+  </si>
+  <si>
+    <t>0107e3ab9644e1afaed1a507233bc9f780a18865</t>
+  </si>
+  <si>
+    <t>Alex Zhdanov</t>
+  </si>
+  <si>
+    <t>f2351e22df729426a3cdbbbaeecf6ace18b94905</t>
+  </si>
+  <si>
+    <t>Dmitriy Zaitsev</t>
+  </si>
+  <si>
+    <t>ff282b9647d0accc0cb55780c9bdb97f4ed03053</t>
+  </si>
+  <si>
+    <t>3300d19ea0c168a210bf7816503d7805ac93dc49</t>
+  </si>
+  <si>
+    <t>ea03b91a274c189d5c6f62c6864a4bcf5b33d7fa</t>
+  </si>
+  <si>
+    <t>07d24c2ecc61eea94b6d646e02ddd9799b42de7c</t>
+  </si>
+  <si>
+    <t>Artur Dryomov</t>
+  </si>
+  <si>
+    <t>6 months ago</t>
+  </si>
+  <si>
+    <t>83ba4b9bc885f7ae6e82ef7f2c86826e05203e85</t>
+  </si>
+  <si>
+    <t>318bf43269c8534d1790b7968251f8f5eaed02d4</t>
+  </si>
+  <si>
+    <t>3634c92cb6a8199b8022ffb3bd8e2a65da9c18f0</t>
+  </si>
+  <si>
+    <t>699e8e951898212e4f9f1f1407da0f85838917a9</t>
+  </si>
+  <si>
+    <t>b0520da3c0c6c6b67daae4d453bb3467b7a6a803</t>
+  </si>
+  <si>
+    <t>70d44071d361fcc99458b062709b7b4b2d9d6bf0</t>
+  </si>
+  <si>
+    <t>f79625a9eef61919625482f81df931de46b8852b</t>
+  </si>
+  <si>
+    <t>792d1cf4652d28be4dd5b36517ede0f0698a1731</t>
+  </si>
+  <si>
+    <t>David Gross</t>
+  </si>
+  <si>
+    <t>777b4c1a9fec37ed15e56b4da5348f29cd5fcdf9</t>
+  </si>
+  <si>
+    <t>0d6c8e3a9913a626de714eabbdbeee100929ca95</t>
+  </si>
+  <si>
+    <t>a779687b4485efba081b6e17360c66ad8542479a</t>
+  </si>
+  <si>
+    <t>falcon71</t>
+  </si>
+  <si>
+    <t>98d0b7f2ec63544890d029282dc2ff3f611b987a</t>
+  </si>
+  <si>
+    <t>14a954cd969b0c86e3e3c28be9e7f7257e15e62f</t>
+  </si>
+  <si>
+    <t>d2c9c34e311347ecfa5b1cb4a43bd8928b0b11a7</t>
+  </si>
+  <si>
+    <t>42ca8c4ff63323f1d667671068f98fa362b0632b</t>
+  </si>
+  <si>
+    <t>869c8554ac1ed46fb005074c20e5432e74cc255e</t>
+  </si>
+  <si>
+    <t>3e7d63ceb43d11a1aa24e8bc09127a0473328678</t>
+  </si>
+  <si>
+    <t>9e18df6657e055e25915ecccbafd9bdf981052a4</t>
+  </si>
+  <si>
+    <t>edd8aed8141804c729c553d09fefd509f2f37e88</t>
+  </si>
+  <si>
+    <t>Jake Wharton</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>1124dc78cc3fb104c0473ded0649e5051e04f91b</t>
+  </si>
+  <si>
+    <t>e28dc4ba7a7ccc0c396761bde60d6a735775b753</t>
+  </si>
+  <si>
+    <t>Adrian Pascu</t>
+  </si>
+  <si>
+    <t>f8b6fbd22db73160284ba43e3a3ead2b979a91a9</t>
+  </si>
+  <si>
+    <t>81d281f073b9c5dcd9e8b81bb6befe936fa8ccf7</t>
+  </si>
+  <si>
+    <t>19d83c148eea5cf789761020638d36b3fee015b3</t>
+  </si>
+  <si>
+    <t>57fde55bb53d16500400cbc40f72c7fddd89c37e</t>
+  </si>
+  <si>
+    <t>c460dd5634bc216c4bf710a0a934b188f78dd90e</t>
+  </si>
+  <si>
+    <t>e255de7db02c715d7441d63e774d8c3f34d40c06</t>
+  </si>
+  <si>
+    <t>788873e29511758ae5ccb84133e53c86f9caac38</t>
+  </si>
+  <si>
+    <t>fe4acf2a68b8f86b5bab4ca27695627ad32201d6</t>
+  </si>
+  <si>
+    <t>637978c66ad9d461fbee298f23d95bb73dbd0a5f</t>
+  </si>
+  <si>
+    <t>d250ae7e90424f56cc267a96435a10eec99a8dcc</t>
+  </si>
+  <si>
+    <t>212db455ba1d7e2a84da20ae272a6c4bce183ea3</t>
+  </si>
+  <si>
+    <t>a5df9633c242f10f28cb0325e510a5afa74bdcb7</t>
+  </si>
+  <si>
+    <t>d320d5cd7227fc34b7e53eccb8979d64d29213e6</t>
+  </si>
+  <si>
+    <t>7c609157c4459f372abf0480b34857568ea9680c</t>
+  </si>
+  <si>
+    <t>4a614dca0a3777116c3364aa49ea4191791bae0c</t>
+  </si>
+  <si>
+    <t>e71d371f21b6ac7ae6261bad3d5a1406dbb5a286</t>
+  </si>
+  <si>
+    <t>35c29511c9b3275ad8094289f796fee696298dbe</t>
+  </si>
+  <si>
+    <t>63a59319b9dba4890f2ade93b86ec430fcd7aae9</t>
+  </si>
+  <si>
+    <t>a2cb6ab4ba852cf35bbb98a580e5c61819722b31</t>
+  </si>
+  <si>
+    <t>6ad74b366ae6cea0260974d49642883840281bc0</t>
+  </si>
+  <si>
+    <t>7e89c1f1a8cde6b461f9a36869b1027961be01a7</t>
+  </si>
+  <si>
+    <t>5888b2361829fa5672f9f6825ddafa0fbbe038a1</t>
+  </si>
+  <si>
+    <t>497f35f64c89b85bbd17a5f4d50a4eb56e545424</t>
+  </si>
+  <si>
+    <t>d9dabab1b77a7c359451e72a633f175b5e0a3c28</t>
+  </si>
+  <si>
+    <t>5209ba343df1cba3cbd75dabaa4af4eb268b3af4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,13 +652,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -157,6 +682,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rx_exp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,18 +951,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,32 +972,132 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -476,7 +1105,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -484,7 +1116,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -492,7 +1125,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -500,7 +1134,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -508,7 +1145,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -516,7 +1156,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -524,7 +1165,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -532,12 +1176,2396 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.1640625" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" customWidth="1"/>
+    <col min="14" max="14" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1">
+        <v>40</v>
+      </c>
+      <c r="D1">
+        <v>502</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>502</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>66</v>
+      </c>
+      <c r="D19">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>502</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>502</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>502</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>502</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>502</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>502</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52">
+        <v>502</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58">
+        <v>66</v>
+      </c>
+      <c r="D58">
+        <v>66</v>
+      </c>
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60">
+        <v>66</v>
+      </c>
+      <c r="D60">
+        <v>66</v>
+      </c>
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61">
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>168</v>
+      </c>
+      <c r="E62" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>168</v>
+      </c>
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64">
+        <v>18</v>
+      </c>
+      <c r="D64">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" t="s">
+        <v>133</v>
+      </c>
+      <c r="G65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66">
+        <v>18</v>
+      </c>
+      <c r="D66">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>40</v>
+      </c>
+      <c r="D67">
+        <v>502</v>
+      </c>
+      <c r="E67" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68">
+        <v>18</v>
+      </c>
+      <c r="D68">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69">
+        <v>18</v>
+      </c>
+      <c r="D69">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70">
+        <v>18</v>
+      </c>
+      <c r="D70">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71">
+        <v>66</v>
+      </c>
+      <c r="D71">
+        <v>66</v>
+      </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72">
+        <v>18</v>
+      </c>
+      <c r="D72">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73">
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" t="s">
+        <v>56</v>
+      </c>
+      <c r="G73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74">
+        <v>18</v>
+      </c>
+      <c r="D74">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" t="s">
+        <v>133</v>
+      </c>
+      <c r="G75" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76">
+        <v>18</v>
+      </c>
+      <c r="D76">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79">
+        <v>66</v>
+      </c>
+      <c r="D79">
+        <v>66</v>
+      </c>
+      <c r="E79" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" t="s">
+        <v>72</v>
+      </c>
+      <c r="G79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80">
+        <v>18</v>
+      </c>
+      <c r="D80">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81">
+        <v>18</v>
+      </c>
+      <c r="D81">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82">
+        <v>18</v>
+      </c>
+      <c r="D82">
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" t="s">
+        <v>56</v>
+      </c>
+      <c r="G82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83">
+        <v>71</v>
+      </c>
+      <c r="D83">
+        <v>72</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" t="s">
+        <v>56</v>
+      </c>
+      <c r="G83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84">
+        <v>18</v>
+      </c>
+      <c r="D84">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85">
+        <v>66</v>
+      </c>
+      <c r="D85">
+        <v>66</v>
+      </c>
+      <c r="E85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" t="s">
+        <v>72</v>
+      </c>
+      <c r="G85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88">
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>21</v>
+      </c>
+      <c r="E88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89">
+        <v>18</v>
+      </c>
+      <c r="D89">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
+        <v>51</v>
+      </c>
+      <c r="F89" t="s">
+        <v>56</v>
+      </c>
+      <c r="G89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90">
+        <v>66</v>
+      </c>
+      <c r="D90">
+        <v>66</v>
+      </c>
+      <c r="E90" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" t="s">
+        <v>72</v>
+      </c>
+      <c r="G90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91">
+        <v>18</v>
+      </c>
+      <c r="D91">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" t="s">
+        <v>56</v>
+      </c>
+      <c r="G91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92">
+        <v>66</v>
+      </c>
+      <c r="D92">
+        <v>66</v>
+      </c>
+      <c r="E92" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" t="s">
+        <v>72</v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>99</v>
+      </c>
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94">
+        <v>18</v>
+      </c>
+      <c r="D94">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
+        <v>51</v>
+      </c>
+      <c r="F94" t="s">
+        <v>56</v>
+      </c>
+      <c r="G94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95">
+        <v>66</v>
+      </c>
+      <c r="D95">
+        <v>66</v>
+      </c>
+      <c r="E95" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95" t="s">
+        <v>72</v>
+      </c>
+      <c r="G95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96">
+        <v>66</v>
+      </c>
+      <c r="D96">
+        <v>66</v>
+      </c>
+      <c r="E96" t="s">
+        <v>51</v>
+      </c>
+      <c r="F96" t="s">
+        <v>72</v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97">
+        <v>18</v>
+      </c>
+      <c r="D97">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97" t="s">
+        <v>56</v>
+      </c>
+      <c r="G97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98">
+        <v>66</v>
+      </c>
+      <c r="D98">
+        <v>66</v>
+      </c>
+      <c r="E98" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98" t="s">
+        <v>72</v>
+      </c>
+      <c r="G98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99">
+        <v>18</v>
+      </c>
+      <c r="D99">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>51</v>
+      </c>
+      <c r="F99" t="s">
+        <v>56</v>
+      </c>
+      <c r="G99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100">
+        <v>18</v>
+      </c>
+      <c r="D100">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>51</v>
+      </c>
+      <c r="F100" t="s">
+        <v>56</v>
+      </c>
+      <c r="G100" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
